--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1712,8 +1712,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>257500</v>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,75 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F8" s="3">
         <v>9800</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -741,20 +749,26 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,20 +784,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,20 +838,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,17 +930,23 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,49 +990,57 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>-600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1056,14 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,19 +1075,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1038,20 +1106,26 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,19 +1141,25 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1096,48 +1176,60 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,19 +1491,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1386,37 +1526,49 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,78 +1705,92 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F41" s="3">
         <v>10000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>59300</v>
+      </c>
+      <c r="F43" s="3">
         <v>55000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,107 +1841,131 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F46" s="3">
         <v>67500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>257500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>256300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>255000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>253400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>251900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>250400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1765,20 +1981,26 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F49" s="3">
         <v>14100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F54" s="3">
         <v>85700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>257600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>256400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>255300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>253700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>252400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>251100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,48 +2225,56 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>5100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2020,87 +2288,105 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F59" s="3">
         <v>10500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2110,20 +2396,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F66" s="3">
         <v>23900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F72" s="3">
         <v>52900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>73800</v>
+      </c>
+      <c r="F76" s="3">
         <v>61800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>255700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>255400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>254800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>253600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>252400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>251100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,20 +3030,22 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,16 +3391,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2954,20 +3414,26 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,49 +3581,61 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>250700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -729,7 +729,7 @@
         <v>123800</v>
       </c>
       <c r="E8" s="3">
-        <v>19700</v>
+        <v>29400</v>
       </c>
       <c r="F8" s="3">
         <v>9800</v>
@@ -764,7 +764,7 @@
         <v>38500</v>
       </c>
       <c r="E9" s="3">
-        <v>5400</v>
+        <v>10400</v>
       </c>
       <c r="F9" s="3">
         <v>5000</v>
@@ -799,7 +799,7 @@
         <v>85300</v>
       </c>
       <c r="E10" s="3">
-        <v>14300</v>
+        <v>19000</v>
       </c>
       <c r="F10" s="3">
         <v>4800</v>
@@ -849,7 +849,7 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1001,7 +1001,7 @@
         <v>93100</v>
       </c>
       <c r="E17" s="3">
-        <v>11100</v>
+        <v>17900</v>
       </c>
       <c r="F17" s="3">
         <v>6900</v>
@@ -1036,7 +1036,7 @@
         <v>30700</v>
       </c>
       <c r="E18" s="3">
-        <v>8600</v>
+        <v>11500</v>
       </c>
       <c r="F18" s="3">
         <v>2900</v>
@@ -1086,7 +1086,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1191,7 +1191,7 @@
         <v>30900</v>
       </c>
       <c r="E23" s="3">
-        <v>8600</v>
+        <v>29600</v>
       </c>
       <c r="F23" s="3">
         <v>2800</v>
@@ -1296,7 +1296,7 @@
         <v>29200</v>
       </c>
       <c r="E26" s="3">
-        <v>9000</v>
+        <v>30100</v>
       </c>
       <c r="F26" s="3">
         <v>2800</v>
@@ -1331,7 +1331,7 @@
         <v>29300</v>
       </c>
       <c r="E27" s="3">
-        <v>9100</v>
+        <v>30200</v>
       </c>
       <c r="F27" s="3">
         <v>2900</v>
@@ -1506,7 +1506,7 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>29300</v>
       </c>
       <c r="E33" s="3">
-        <v>9100</v>
+        <v>30200</v>
       </c>
       <c r="F33" s="3">
         <v>2900</v>
@@ -1611,7 +1611,7 @@
         <v>29300</v>
       </c>
       <c r="E35" s="3">
-        <v>9100</v>
+        <v>30200</v>
       </c>
       <c r="F35" s="3">
         <v>2900</v>
@@ -2991,7 +2991,7 @@
         <v>29300</v>
       </c>
       <c r="E81" s="3">
-        <v>9100</v>
+        <v>30200</v>
       </c>
       <c r="F81" s="3">
         <v>2900</v>
@@ -3251,7 +3251,7 @@
         <v>8700</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="F89" s="3">
         <v>-1100</v>
@@ -3596,7 +3596,7 @@
         <v>5400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="F100" s="3">
         <v>4300</v>
@@ -3631,7 +3631,7 @@
         <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -3666,7 +3666,7 @@
         <v>10800</v>
       </c>
       <c r="E102" s="3">
-        <v>-900</v>
+        <v>2100</v>
       </c>
       <c r="F102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,79 +667,87 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F8" s="3">
         <v>123800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>29400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -755,26 +763,32 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F9" s="3">
         <v>38500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,26 +804,32 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F10" s="3">
         <v>85300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,26 +866,28 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,17 +976,23 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,61 +1044,69 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F17" s="3">
         <v>93100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>-300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>11500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1122,14 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,25 +1143,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>18300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1112,26 +1180,32 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>34100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,26 +1221,32 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,60 +1262,72 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F23" s="3">
         <v>30900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F26" s="3">
         <v>29200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F27" s="3">
         <v>29300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>30200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,25 +1631,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-18300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1532,43 +1672,55 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F33" s="3">
         <v>29300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>30200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F35" s="3">
         <v>29300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>30200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,55 +1879,63 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1768,35 +1948,41 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F43" s="3">
         <v>81100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>59300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>55000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +2039,96 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>161400</v>
+      </c>
+      <c r="F46" s="3">
         <v>103100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>78600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>67500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,50 +2138,56 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>257500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>256300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>255000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>253400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>251900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>250400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1987,26 +2203,32 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F49" s="3">
         <v>15600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>14100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,26 +2326,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F52" s="3">
         <v>22700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>205300</v>
+      </c>
+      <c r="F54" s="3">
         <v>143400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>98300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>85700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>257600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>256400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>255300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>253700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>252400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>251100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,60 +2487,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
         <v>5100</v>
       </c>
       <c r="F58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>5100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2294,105 +2562,123 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F59" s="3">
         <v>20900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F60" s="3">
         <v>35400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2402,26 +2688,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F66" s="3">
         <v>38600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>106800</v>
+      </c>
+      <c r="F72" s="3">
         <v>79300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>62000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>52900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>300</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>137200</v>
+      </c>
+      <c r="F76" s="3">
         <v>104800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>73800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>61800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>255700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>255400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>254800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>253600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>252400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>251100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F81" s="3">
         <v>29300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>30200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,26 +3428,28 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F89" s="3">
         <v>8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,8 +3745,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3318,17 +3760,23 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,61 +4073,73 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>250700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3657,39 +4155,51 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F102" s="3">
         <v>10800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -743,7 +743,7 @@
         <v>123800</v>
       </c>
       <c r="G8" s="3">
-        <v>29400</v>
+        <v>19700</v>
       </c>
       <c r="H8" s="3">
         <v>9800</v>
@@ -784,7 +784,7 @@
         <v>38500</v>
       </c>
       <c r="G9" s="3">
-        <v>10400</v>
+        <v>5400</v>
       </c>
       <c r="H9" s="3">
         <v>5000</v>
@@ -825,7 +825,7 @@
         <v>85300</v>
       </c>
       <c r="G10" s="3">
-        <v>19000</v>
+        <v>14300</v>
       </c>
       <c r="H10" s="3">
         <v>4800</v>
@@ -883,7 +883,7 @@
         <v>700</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -1061,7 +1061,7 @@
         <v>93100</v>
       </c>
       <c r="G17" s="3">
-        <v>17900</v>
+        <v>11100</v>
       </c>
       <c r="H17" s="3">
         <v>6900</v>
@@ -1102,7 +1102,7 @@
         <v>30700</v>
       </c>
       <c r="G18" s="3">
-        <v>11500</v>
+        <v>8600</v>
       </c>
       <c r="H18" s="3">
         <v>2900</v>
@@ -1191,11 +1191,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18200</v>
       </c>
       <c r="F21" s="3">
         <v>34100</v>
@@ -1242,7 +1242,7 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1283,7 +1283,7 @@
         <v>30900</v>
       </c>
       <c r="G23" s="3">
-        <v>29600</v>
+        <v>26800</v>
       </c>
       <c r="H23" s="3">
         <v>2800</v>
@@ -1396,8 +1396,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>35400</v>
       </c>
       <c r="E26" s="3">
         <v>16900</v>
@@ -1406,7 +1406,7 @@
         <v>29200</v>
       </c>
       <c r="G26" s="3">
-        <v>30100</v>
+        <v>27300</v>
       </c>
       <c r="H26" s="3">
         <v>2800</v>
@@ -1437,8 +1437,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>35300</v>
       </c>
       <c r="E27" s="3">
         <v>16900</v>
@@ -1447,7 +1447,7 @@
         <v>29300</v>
       </c>
       <c r="G27" s="3">
-        <v>30200</v>
+        <v>27300</v>
       </c>
       <c r="H27" s="3">
         <v>2900</v>
@@ -1683,8 +1683,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>35300</v>
       </c>
       <c r="E33" s="3">
         <v>16900</v>
@@ -1693,7 +1693,7 @@
         <v>29300</v>
       </c>
       <c r="G33" s="3">
-        <v>30200</v>
+        <v>27300</v>
       </c>
       <c r="H33" s="3">
         <v>2900</v>
@@ -1765,8 +1765,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>35300</v>
       </c>
       <c r="E35" s="3">
         <v>16900</v>
@@ -1775,7 +1775,7 @@
         <v>29300</v>
       </c>
       <c r="G35" s="3">
-        <v>30200</v>
+        <v>27300</v>
       </c>
       <c r="H35" s="3">
         <v>2900</v>
@@ -2700,7 +2700,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
@@ -3377,8 +3377,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>35300</v>
       </c>
       <c r="E81" s="3">
         <v>16900</v>
@@ -3387,7 +3387,7 @@
         <v>29300</v>
       </c>
       <c r="G81" s="3">
-        <v>30200</v>
+        <v>27300</v>
       </c>
       <c r="H81" s="3">
         <v>2900</v>
@@ -3435,11 +3435,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>2900</v>
@@ -3681,8 +3681,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>46500</v>
       </c>
       <c r="E89" s="3">
         <v>-11900</v>
@@ -3691,7 +3691,7 @@
         <v>8700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>-1100</v>
@@ -3742,8 +3742,8 @@
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4084,8 +4084,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>13300</v>
       </c>
       <c r="E100" s="3">
         <v>12500</v>
@@ -4094,7 +4094,7 @@
         <v>5400</v>
       </c>
       <c r="G100" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>4300</v>
@@ -4135,7 +4135,7 @@
         <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -4167,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59600</v>
+        <v>59600</v>
       </c>
       <c r="E102" s="3">
         <v>2600</v>
@@ -4176,7 +4176,7 @@
         <v>10800</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>-900</v>
       </c>
       <c r="H102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E8" s="3">
         <v>153000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -769,29 +773,32 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E9" s="3">
         <v>34900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -810,29 +817,32 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E10" s="3">
         <v>118100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>85300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,29 +881,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,17 +1002,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,70 +1072,74 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E17" s="3">
         <v>116700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-1300</v>
       </c>
       <c r="M17" s="3">
         <v>-1300</v>
       </c>
       <c r="N17" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O17" s="3">
         <v>-400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E18" s="3">
         <v>36300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1158,11 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,28 +1178,29 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1186,29 +1220,32 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>38900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,28 +1264,31 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1268,69 +1308,75 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>36300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1300</v>
       </c>
       <c r="M23" s="3">
         <v>1300</v>
       </c>
       <c r="N23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>35400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1300</v>
       </c>
       <c r="M26" s="3">
         <v>1300</v>
       </c>
       <c r="N26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E27" s="3">
         <v>35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1300</v>
       </c>
       <c r="M27" s="3">
         <v>1300</v>
       </c>
       <c r="N27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,28 +1704,31 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1678,49 +1748,55 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1300</v>
       </c>
       <c r="M33" s="3">
         <v>1300</v>
       </c>
       <c r="N33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1300</v>
       </c>
       <c r="M35" s="3">
         <v>1300</v>
       </c>
       <c r="N35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,64 +1967,68 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E41" s="3">
         <v>77300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10000</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +2044,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E43" s="3">
         <v>63100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>115800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,90 +2141,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E46" s="3">
         <v>153500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,53 +2249,56 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>257500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>256300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>255000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>253400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>251900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>250400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2209,29 +2317,32 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
         <v>16700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,29 +2449,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E52" s="3">
         <v>23400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E54" s="3">
         <v>195200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>143400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>256400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>255300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>253700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>251100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,69 +2619,73 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5100</v>
       </c>
       <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>5100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2568,82 +2702,88 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>16700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E60" s="3">
         <v>34600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -2651,10 +2791,13 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,26 +2805,26 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1400</v>
       </c>
       <c r="G61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
       </c>
       <c r="I61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2837,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3013,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E66" s="3">
         <v>36300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -2897,10 +3055,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E72" s="3">
         <v>125200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>106800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>62000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E76" s="3">
         <v>158900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>137200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>104800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>73800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>61800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>255700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>255400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>253600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>252400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>251100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1300</v>
       </c>
       <c r="M81" s="3">
         <v>1300</v>
       </c>
       <c r="N81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,29 +3628,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E89" s="3">
         <v>46500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3954,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3748,8 +3969,8 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3766,8 +3987,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,31 +4084,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3889,8 +4119,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,70 +4322,76 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>13300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
       </c>
       <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>250700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E102" s="3">
         <v>59600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E8" s="3">
         <v>69900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>153000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>123800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,32 +780,35 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>38500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -820,32 +827,35 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>118100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>85300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,32 +895,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,17 +1025,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,76 +1099,80 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E17" s="3">
         <v>59400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>-1300</v>
       </c>
       <c r="N17" s="3">
         <v>-1300</v>
       </c>
       <c r="O17" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P17" s="3">
         <v>-400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E18" s="3">
         <v>10500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +1191,11 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,22 +1222,22 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
       <c r="H20" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I20" s="3">
         <v>18300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1223,32 +1257,35 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>38900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
-        <v>34100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
+        <v>53800</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,22 +1316,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1311,75 +1351,81 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E23" s="3">
         <v>10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3">
-        <v>30900</v>
-      </c>
       <c r="H23" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I23" s="3">
         <v>26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1300</v>
       </c>
       <c r="N23" s="3">
         <v>1300</v>
       </c>
       <c r="O23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
-        <v>29200</v>
-      </c>
       <c r="H26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I26" s="3">
         <v>27300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1300</v>
       </c>
       <c r="N26" s="3">
         <v>1300</v>
       </c>
       <c r="O26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E27" s="3">
         <v>10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3">
-        <v>29300</v>
-      </c>
       <c r="H27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I27" s="3">
         <v>27300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1300</v>
       </c>
       <c r="N27" s="3">
         <v>1300</v>
       </c>
       <c r="O27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,22 +1786,22 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-18300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1751,52 +1821,58 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E33" s="3">
         <v>10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3">
-        <v>29300</v>
-      </c>
       <c r="H33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I33" s="3">
         <v>27300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1300</v>
       </c>
       <c r="N33" s="3">
         <v>1300</v>
       </c>
       <c r="O33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E35" s="3">
         <v>10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3">
-        <v>29300</v>
-      </c>
       <c r="H35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I35" s="3">
         <v>27300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1300</v>
       </c>
       <c r="N35" s="3">
         <v>1300</v>
       </c>
       <c r="O35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,70 +2054,74 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E41" s="3">
         <v>44800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2047,8 +2137,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2056,32 +2146,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E43" s="3">
         <v>79200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>115800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,96 +2240,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>30500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E46" s="3">
         <v>154400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>153500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>67500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2252,56 +2357,59 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>257500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>256300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>255000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>253400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>251900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>250400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2320,32 +2428,35 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,32 +2569,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>22400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E54" s="3">
         <v>193300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>195200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>205300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>143400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>85700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>257600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>256400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>255300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>252400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>251100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,75 +2750,79 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5100</v>
       </c>
       <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>5100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2705,88 +2839,94 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E60" s="3">
         <v>30300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
@@ -2794,10 +2934,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2808,26 +2951,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1400</v>
       </c>
       <c r="H61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I61" s="3">
         <v>1300</v>
       </c>
       <c r="J61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2840,32 +2983,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,41 +3171,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E66" s="3">
         <v>31200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -3058,10 +3216,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3425,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E72" s="3">
         <v>136000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>125200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>106800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E76" s="3">
         <v>162100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>137200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>73800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>255700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>255400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>254800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>253600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>252400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>251100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E81" s="3">
         <v>10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3">
-        <v>29300</v>
-      </c>
       <c r="H81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I81" s="3">
         <v>27300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1300</v>
       </c>
       <c r="N81" s="3">
         <v>1300</v>
       </c>
       <c r="O81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,32 +3827,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,31 +4175,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-8000</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-2700</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>-2800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3990,8 +4211,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,34 +4314,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -4122,8 +4352,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,76 +4568,82 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
+        <v>500</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>250700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSMG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>GSMG</t>
   </si>
@@ -742,22 +742,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>157100</v>
+        <v>87100</v>
       </c>
       <c r="E8" s="3">
         <v>69900</v>
       </c>
       <c r="F8" s="3">
-        <v>153000</v>
+        <v>81100</v>
       </c>
       <c r="G8" s="3">
         <v>71900</v>
       </c>
       <c r="H8" s="3">
-        <v>123800</v>
+        <v>218100</v>
       </c>
       <c r="I8" s="3">
-        <v>19700</v>
+        <v>49100</v>
       </c>
       <c r="J8" s="3">
         <v>9800</v>
@@ -789,22 +789,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40600</v>
+        <v>26000</v>
       </c>
       <c r="E9" s="3">
         <v>14600</v>
       </c>
       <c r="F9" s="3">
-        <v>34900</v>
+        <v>21800</v>
       </c>
       <c r="G9" s="3">
         <v>13200</v>
       </c>
       <c r="H9" s="3">
-        <v>38500</v>
+        <v>66600</v>
       </c>
       <c r="I9" s="3">
-        <v>5400</v>
+        <v>15800</v>
       </c>
       <c r="J9" s="3">
         <v>5000</v>
@@ -836,22 +836,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116500</v>
+        <v>61100</v>
       </c>
       <c r="E10" s="3">
         <v>55300</v>
       </c>
       <c r="F10" s="3">
-        <v>118100</v>
+        <v>59300</v>
       </c>
       <c r="G10" s="3">
         <v>58700</v>
       </c>
       <c r="H10" s="3">
-        <v>85300</v>
+        <v>151500</v>
       </c>
       <c r="I10" s="3">
-        <v>14300</v>
+        <v>33300</v>
       </c>
       <c r="J10" s="3">
         <v>4800</v>
@@ -902,22 +902,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
       </c>
       <c r="F12" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -1106,22 +1106,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>130400</v>
+        <v>70900</v>
       </c>
       <c r="E17" s="3">
         <v>59400</v>
       </c>
       <c r="F17" s="3">
-        <v>116700</v>
+        <v>61000</v>
       </c>
       <c r="G17" s="3">
         <v>55700</v>
       </c>
       <c r="H17" s="3">
-        <v>93100</v>
+        <v>168200</v>
       </c>
       <c r="I17" s="3">
-        <v>11100</v>
+        <v>29000</v>
       </c>
       <c r="J17" s="3">
         <v>6900</v>
@@ -1153,22 +1153,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>26700</v>
+        <v>16200</v>
       </c>
       <c r="E18" s="3">
         <v>10500</v>
       </c>
       <c r="F18" s="3">
-        <v>36300</v>
+        <v>20100</v>
       </c>
       <c r="G18" s="3">
         <v>16200</v>
       </c>
       <c r="H18" s="3">
-        <v>30700</v>
+        <v>49900</v>
       </c>
       <c r="I18" s="3">
-        <v>8600</v>
+        <v>20100</v>
       </c>
       <c r="J18" s="3">
         <v>2900</v>
@@ -1219,22 +1219,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
-        <v>20200</v>
+        <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1265,20 +1265,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>29800</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>38900</v>
+        <v>20700</v>
       </c>
       <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="H21" s="3">
-        <v>53800</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1313,22 +1313,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1360,22 +1360,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26900</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="3">
         <v>10600</v>
       </c>
       <c r="F23" s="3">
-        <v>36300</v>
+        <v>19400</v>
       </c>
       <c r="G23" s="3">
         <v>16900</v>
       </c>
       <c r="H23" s="3">
-        <v>50600</v>
+        <v>51900</v>
       </c>
       <c r="I23" s="3">
-        <v>26800</v>
+        <v>38200</v>
       </c>
       <c r="J23" s="3">
         <v>2800</v>
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="I24" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1501,22 +1501,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26400</v>
+        <v>15800</v>
       </c>
       <c r="E26" s="3">
         <v>10600</v>
       </c>
       <c r="F26" s="3">
-        <v>35400</v>
+        <v>18400</v>
       </c>
       <c r="G26" s="3">
         <v>16900</v>
       </c>
       <c r="H26" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="I26" s="3">
-        <v>27300</v>
+        <v>39100</v>
       </c>
       <c r="J26" s="3">
         <v>2800</v>
@@ -1548,22 +1548,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>26900</v>
+        <v>16100</v>
       </c>
       <c r="E27" s="3">
         <v>10800</v>
       </c>
       <c r="F27" s="3">
-        <v>35300</v>
+        <v>18400</v>
       </c>
       <c r="G27" s="3">
         <v>16900</v>
       </c>
       <c r="H27" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="I27" s="3">
-        <v>27300</v>
+        <v>39300</v>
       </c>
       <c r="J27" s="3">
         <v>2900</v>
@@ -1783,22 +1783,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
-        <v>-20200</v>
+        <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1830,22 +1830,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>26900</v>
+        <v>16100</v>
       </c>
       <c r="E33" s="3">
         <v>10800</v>
       </c>
       <c r="F33" s="3">
-        <v>35300</v>
+        <v>18400</v>
       </c>
       <c r="G33" s="3">
         <v>16900</v>
       </c>
       <c r="H33" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="I33" s="3">
-        <v>27300</v>
+        <v>39300</v>
       </c>
       <c r="J33" s="3">
         <v>2900</v>
@@ -1924,22 +1924,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>26900</v>
+        <v>16100</v>
       </c>
       <c r="E35" s="3">
         <v>10800</v>
       </c>
       <c r="F35" s="3">
-        <v>35300</v>
+        <v>18400</v>
       </c>
       <c r="G35" s="3">
         <v>16900</v>
       </c>
       <c r="H35" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="I35" s="3">
-        <v>27300</v>
+        <v>39300</v>
       </c>
       <c r="J35" s="3">
         <v>2900</v>
@@ -3768,22 +3768,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>26900</v>
+        <v>16100</v>
       </c>
       <c r="E81" s="3">
         <v>10800</v>
       </c>
       <c r="F81" s="3">
-        <v>35300</v>
+        <v>18400</v>
       </c>
       <c r="G81" s="3">
         <v>16900</v>
       </c>
       <c r="H81" s="3">
-        <v>49000</v>
+        <v>48100</v>
       </c>
       <c r="I81" s="3">
-        <v>27300</v>
+        <v>39300</v>
       </c>
       <c r="J81" s="3">
         <v>2900</v>
@@ -3833,20 +3833,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2900</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
-        <v>2900</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -4116,22 +4116,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7700</v>
+        <v>38400</v>
       </c>
       <c r="E89" s="3">
         <v>-30600</v>
       </c>
       <c r="F89" s="3">
-        <v>46500</v>
+        <v>58300</v>
       </c>
       <c r="G89" s="3">
         <v>-11900</v>
       </c>
       <c r="H89" s="3">
-        <v>8700</v>
+        <v>9700</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="J89" s="3">
         <v>-1100</v>
@@ -4323,19 +4323,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1100</v>
+        <v>-2700</v>
       </c>
       <c r="G94" s="3">
         <v>1700</v>
       </c>
       <c r="H94" s="3">
-        <v>-4400</v>
+        <v>-3400</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
@@ -4577,22 +4577,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
         <v>800</v>
       </c>
       <c r="F100" s="3">
-        <v>13300</v>
+        <v>800</v>
       </c>
       <c r="G100" s="3">
         <v>12500</v>
       </c>
       <c r="H100" s="3">
-        <v>5400</v>
+        <v>1100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="J100" s="3">
         <v>4300</v>
@@ -4624,22 +4624,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
         <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -4671,22 +4671,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6800</v>
+        <v>25700</v>
       </c>
       <c r="E102" s="3">
         <v>-32500</v>
       </c>
       <c r="F102" s="3">
-        <v>59600</v>
+        <v>57000</v>
       </c>
       <c r="G102" s="3">
         <v>2600</v>
       </c>
       <c r="H102" s="3">
-        <v>10800</v>
+        <v>8700</v>
       </c>
       <c r="I102" s="3">
-        <v>-900</v>
+        <v>2100</v>
       </c>
       <c r="J102" s="3">
         <v>3000</v>
